--- a/dataproc/pj3-data/1.xlsx
+++ b/dataproc/pj3-data/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43889\Desktop\质研院\质量数据集\质量数据集\3. 上海市质量数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\机械项目\blue99\Blue_2\dataproc\pj3-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A64B607-FFB0-453E-B4A1-8B55A6698064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72113309-E9F7-45E5-ACF9-FBEE46873F66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="0" windowWidth="14440" windowHeight="10200" tabRatio="500" firstSheet="48" activeTab="48" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="46" activeTab="47" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2009-2017年生产许可证获证企业数和省 市级审查数" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <sheet name="2017年度上海市“质量标杆”获奖组织一览表" sheetId="54" r:id="rId48"/>
     <sheet name="2008-2017年《中国500最具价值品牌》上海品牌数" sheetId="55" r:id="rId49"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -925,42 +925,55 @@
   </si>
   <si>
     <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“质量标杆”名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获奖组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>延锋彼欧实施精益生产一线创新的实践经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>延锋彼欧汽车外饰系统有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>泛亚汽车实施数字化软件开发及质量管理经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>泛亚汽车技术中心有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上海东方雨虹实施产品唯一身份全供应链管理协同系统的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上海东方雨虹防水技术有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上海江南长兴重工精益质量管理在超大型集装箱船建造的实践经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上海江南长兴重工有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上海燃气集团微客服平台应用的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上海燃气（集团）有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -985,27 +998,35 @@
       </rPr>
       <t>”改进与创新体系的实践经验</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>沃尔沃建筑设备（中国）有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联合电子实施基于失效模式的设计评审的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联合汽车电子有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吴二电实施电气二次设备可靠性管理体系的实践经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上海吴泾第二发电有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>航天科工浦东中心实施保障平台系统的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国航天科工集团上海浦东开发中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1030,9 +1051,11 @@
       </rPr>
       <t>科研生产质量管理平台的实践经验</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上海无线电设备研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1057,27 +1080,35 @@
       </rPr>
       <t>团队管理的经验</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上海子元汽车零部件有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄海制药实施中药生产质量现代化管理的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海汽轮机厂推进质量管理小组活动的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿地建设应用顾客满意管理提升工程品质经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上海黄海制药有限责任公司</t>
-  </si>
-  <si>
-    <t>上海汽轮机厂推进质量管理小组活动的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上海电气电站设备有限公司上海汽轮机厂</t>
-  </si>
-  <si>
-    <t>绿地建设应用顾客满意管理提升工程品质经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上海绿地建设（集团）有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1662,39 +1693,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1718,6 +1716,39 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2090,12 +2121,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.84375" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.765625" customWidth="1"/>
-    <col min="4" max="4" width="18.15234375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2516,7 +2547,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="32"/>
@@ -2642,7 +2673,7 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="13" t="s">
@@ -2819,7 +2850,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:11" s="32" customFormat="1">
       <c r="B1" s="32">
@@ -3125,7 +3156,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:9" s="32" customFormat="1">
       <c r="B1" s="32">
@@ -3292,9 +3323,9 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1">
       <c r="A1" s="33" t="s">
         <v>55</v>
       </c>
@@ -3320,7 +3351,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" thickBot="1">
+    <row r="2" spans="1:8" ht="16.5" thickBot="1">
       <c r="A2" s="36" t="s">
         <v>56</v>
       </c>
@@ -3346,7 +3377,7 @@
         <v>96579</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1">
+    <row r="3" spans="1:8" ht="16.5" thickBot="1">
       <c r="A3" s="36" t="s">
         <v>57</v>
       </c>
@@ -3372,7 +3403,7 @@
         <v>6403</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" thickBot="1">
+    <row r="4" spans="1:8" ht="16.5" thickBot="1">
       <c r="A4" s="36" t="s">
         <v>58</v>
       </c>
@@ -3398,7 +3429,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" thickBot="1">
+    <row r="5" spans="1:8" ht="16.5" thickBot="1">
       <c r="A5" s="36" t="s">
         <v>59</v>
       </c>
@@ -3424,7 +3455,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" thickBot="1">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1">
       <c r="A6" s="36" t="s">
         <v>60</v>
       </c>
@@ -3465,7 +3496,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3618,7 +3649,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
@@ -3790,43 +3821,43 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A1" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="63" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="63" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="63" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="63" t="s">
+      <c r="I1" s="72"/>
+      <c r="J1" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="63" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="63" t="s">
+      <c r="M1" s="72"/>
+      <c r="N1" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="65"/>
-    </row>
-    <row r="2" spans="1:15" ht="16" thickBot="1">
-      <c r="A2" s="67"/>
+      <c r="O1" s="73"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A2" s="75"/>
       <c r="B2" s="37" t="s">
         <v>75</v>
       </c>
@@ -3870,7 +3901,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16" thickBot="1">
+    <row r="3" spans="1:15" ht="16.5" thickBot="1">
       <c r="A3" s="18" t="s">
         <v>77</v>
       </c>
@@ -3917,7 +3948,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" thickBot="1">
+    <row r="4" spans="1:15" ht="16.5" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>78</v>
       </c>
@@ -3964,7 +3995,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16" thickBot="1">
+    <row r="5" spans="1:15" ht="16.5" thickBot="1">
       <c r="A5" s="18" t="s">
         <v>79</v>
       </c>
@@ -4011,7 +4042,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16" thickBot="1">
+    <row r="6" spans="1:15" ht="16.5" thickBot="1">
       <c r="A6" s="39" t="s">
         <v>80</v>
       </c>
@@ -4058,7 +4089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16" thickTop="1"/>
+    <row r="7" spans="1:15" ht="16.5" thickTop="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="L1:M1"/>
@@ -4084,7 +4115,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -4154,7 +4185,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -4224,7 +4255,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1">
@@ -4334,9 +4365,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="15.3046875" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4399,7 +4430,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
@@ -4450,7 +4481,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13"/>
@@ -4619,7 +4650,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -4692,7 +4723,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -4753,7 +4784,7 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -4826,7 +4857,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
@@ -4895,7 +4926,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -4968,9 +4999,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" s="41" t="s">
         <v>55</v>
       </c>
@@ -4984,7 +5015,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1">
+    <row r="2" spans="1:4" ht="16.5" thickBot="1">
       <c r="A2" s="43">
         <v>2015</v>
       </c>
@@ -4998,7 +5029,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1">
+    <row r="3" spans="1:4" ht="16.5" thickBot="1">
       <c r="A3" s="43">
         <v>2016</v>
       </c>
@@ -5012,7 +5043,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1">
       <c r="A4" s="43">
         <v>2017</v>
       </c>
@@ -5041,9 +5072,9 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.5" thickBot="1">
+    <row r="1" spans="1:4" ht="39" thickBot="1">
       <c r="A1" s="41" t="s">
         <v>55</v>
       </c>
@@ -5057,7 +5088,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1">
+    <row r="2" spans="1:4" ht="16.5" thickBot="1">
       <c r="A2" s="43">
         <v>2016</v>
       </c>
@@ -5071,7 +5102,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1">
+    <row r="3" spans="1:4" ht="16.5" thickBot="1">
       <c r="A3" s="43">
         <v>2017</v>
       </c>
@@ -5100,9 +5131,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:7" ht="17.25" thickTop="1" thickBot="1">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
@@ -5125,7 +5156,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27.5" thickBot="1">
+    <row r="2" spans="1:7" ht="26.25" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
@@ -5148,7 +5179,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.5" thickBot="1">
+    <row r="3" spans="1:7" ht="26.25" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -5171,7 +5202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.5" thickBot="1">
+    <row r="4" spans="1:7" ht="26.25" thickBot="1">
       <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
@@ -5194,7 +5225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" thickTop="1"/>
+    <row r="5" spans="1:7" ht="16.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5210,9 +5241,9 @@
       <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.5" thickBot="1">
+    <row r="1" spans="1:4" ht="26.25" thickBot="1">
       <c r="A1" s="41" t="s">
         <v>55</v>
       </c>
@@ -5226,7 +5257,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1">
+    <row r="2" spans="1:4" ht="16.5" thickBot="1">
       <c r="A2" s="43">
         <v>2014</v>
       </c>
@@ -5240,7 +5271,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1">
+    <row r="3" spans="1:4" ht="16.5" thickBot="1">
       <c r="A3" s="43">
         <v>2015</v>
       </c>
@@ -5254,7 +5285,7 @@
         <v>98.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1">
       <c r="A4" s="43">
         <v>2016</v>
       </c>
@@ -5268,7 +5299,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1">
       <c r="A5" s="43">
         <v>2017</v>
       </c>
@@ -5297,7 +5328,7 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -5402,7 +5433,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
@@ -5510,9 +5541,9 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="46"/>
       <c r="B1" s="47">
         <v>2008</v>
@@ -5545,7 +5576,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1">
       <c r="A2" s="49" t="s">
         <v>111</v>
       </c>
@@ -5580,7 +5611,7 @@
         <v>6029</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27.5" thickBot="1">
+    <row r="3" spans="1:11" ht="26.25" thickBot="1">
       <c r="A3" s="49" t="s">
         <v>112</v>
       </c>
@@ -5615,7 +5646,7 @@
         <v>103377</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.5" thickBot="1">
+    <row r="4" spans="1:11" ht="26.25" thickBot="1">
       <c r="A4" s="49" t="s">
         <v>113</v>
       </c>
@@ -5650,7 +5681,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1">
       <c r="A5" s="49" t="s">
         <v>115</v>
       </c>
@@ -5685,7 +5716,7 @@
         <v>238664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickBot="1">
       <c r="A6" s="49" t="s">
         <v>116</v>
       </c>
@@ -5720,7 +5751,7 @@
         <v>75868</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="27.5" thickBot="1">
+    <row r="7" spans="1:11" ht="26.25" thickBot="1">
       <c r="A7" s="49" t="s">
         <v>117</v>
       </c>
@@ -5755,7 +5786,7 @@
         <v>73238</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27.5" thickBot="1">
+    <row r="8" spans="1:11" ht="26.25" thickBot="1">
       <c r="A8" s="49" t="s">
         <v>118</v>
       </c>
@@ -5790,7 +5821,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickBot="1">
       <c r="A9" s="49" t="s">
         <v>119</v>
       </c>
@@ -5825,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1">
+    <row r="10" spans="1:11" ht="16.5" thickBot="1">
       <c r="A10" s="49" t="s">
         <v>80</v>
       </c>
@@ -5875,7 +5906,7 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -6079,9 +6110,9 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="52" t="s">
         <v>55</v>
       </c>
@@ -6116,7 +6147,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1">
       <c r="A2" s="53" t="s">
         <v>121</v>
       </c>
@@ -6151,7 +6182,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27.5" thickBot="1">
+    <row r="3" spans="1:11" ht="26.25" thickBot="1">
       <c r="A3" s="53" t="s">
         <v>122</v>
       </c>
@@ -6201,9 +6232,9 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="54" t="s">
         <v>123</v>
       </c>
@@ -6238,107 +6269,107 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27">
-      <c r="A2" s="72">
+    <row r="2" spans="1:11" ht="25.5">
+      <c r="A2" s="78">
         <v>1</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="68">
+      <c r="C2" s="76">
         <v>11</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="80">
         <v>10</v>
       </c>
-      <c r="E2" s="68">
+      <c r="E2" s="76">
         <v>10</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="76">
         <v>10</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="76">
         <v>10</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="76">
         <v>10</v>
       </c>
-      <c r="I2" s="68">
+      <c r="I2" s="76">
         <v>10</v>
       </c>
-      <c r="J2" s="68">
+      <c r="J2" s="76">
         <v>10</v>
       </c>
-      <c r="K2" s="70">
+      <c r="K2" s="80">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27.5" thickBot="1">
-      <c r="A3" s="73"/>
+    <row r="3" spans="1:11" ht="26.25" thickBot="1">
+      <c r="A3" s="79"/>
       <c r="B3" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="71"/>
-    </row>
-    <row r="4" spans="1:11" ht="27">
-      <c r="A4" s="72">
+      <c r="C3" s="77"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="81"/>
+    </row>
+    <row r="4" spans="1:11" ht="25.5">
+      <c r="A4" s="78">
         <v>2</v>
       </c>
       <c r="B4" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="76">
         <v>13</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="80">
         <v>13</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="76">
         <v>13</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="76">
         <v>13</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="76">
         <v>13</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="76">
         <v>14</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="76">
         <v>14</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="76">
         <v>15</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="80">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="73"/>
+    <row r="5" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A5" s="79"/>
       <c r="B5" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="71"/>
-    </row>
-    <row r="6" spans="1:11" ht="27.5" thickBot="1">
+      <c r="C5" s="77"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="81"/>
+    </row>
+    <row r="6" spans="1:11" ht="26.25" thickBot="1">
       <c r="A6" s="58">
         <v>3</v>
       </c>
@@ -6373,7 +6404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="27.5" thickBot="1">
+    <row r="7" spans="1:11" ht="26.25" thickBot="1">
       <c r="A7" s="58">
         <v>4</v>
       </c>
@@ -6408,7 +6439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27.5" thickBot="1">
+    <row r="8" spans="1:11" ht="26.25" thickBot="1">
       <c r="A8" s="58">
         <v>5</v>
       </c>
@@ -6443,7 +6474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickBot="1">
       <c r="A9" s="58"/>
       <c r="B9" s="51" t="s">
         <v>80</v>
@@ -6478,6 +6509,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
@@ -6490,14 +6529,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6510,10 +6541,10 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
@@ -6649,9 +6680,9 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.07421875" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6702,7 +6733,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -6767,9 +6798,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:8" ht="17.25" thickTop="1" thickBot="1">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
@@ -6795,7 +6826,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" thickBot="1">
+    <row r="2" spans="1:8" ht="16.5" thickBot="1">
       <c r="A2" s="20" t="s">
         <v>16</v>
       </c>
@@ -6821,7 +6852,7 @@
         <v>438954</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" thickTop="1"/>
+    <row r="3" spans="1:8" ht="16.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6837,9 +6868,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1">
       <c r="A1" s="59" t="s">
         <v>135</v>
       </c>
@@ -6847,7 +6878,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="41" thickBot="1">
+    <row r="2" spans="1:2" ht="51.75" thickBot="1">
       <c r="A2" s="60">
         <v>2009</v>
       </c>
@@ -6855,7 +6886,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.5" thickBot="1">
+    <row r="3" spans="1:2" ht="39" thickBot="1">
       <c r="A3" s="60">
         <v>2009</v>
       </c>
@@ -6863,7 +6894,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.5" thickBot="1">
+    <row r="4" spans="1:2" ht="39" thickBot="1">
       <c r="A4" s="60">
         <v>2009</v>
       </c>
@@ -6871,7 +6902,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.5" thickBot="1">
+    <row r="5" spans="1:2" ht="26.25" thickBot="1">
       <c r="A5" s="60">
         <v>2009</v>
       </c>
@@ -6879,7 +6910,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.5" thickBot="1">
+    <row r="6" spans="1:2" ht="39" thickBot="1">
       <c r="A6" s="60">
         <v>2009</v>
       </c>
@@ -6887,7 +6918,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="82.5" thickBot="1">
+    <row r="7" spans="1:2" ht="104.25" thickBot="1">
       <c r="A7" s="60">
         <v>2009</v>
       </c>
@@ -6895,7 +6926,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="81.5" thickBot="1">
+    <row r="8" spans="1:2" ht="90" thickBot="1">
       <c r="A8" s="60">
         <v>2010</v>
       </c>
@@ -6903,7 +6934,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="54.5" thickBot="1">
+    <row r="9" spans="1:2" ht="64.5" thickBot="1">
       <c r="A9" s="60">
         <v>2012</v>
       </c>
@@ -6911,7 +6942,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.5" thickBot="1">
+    <row r="10" spans="1:2" ht="39" thickBot="1">
       <c r="A10" s="60">
         <v>2012</v>
       </c>
@@ -6919,7 +6950,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="68" thickBot="1">
+    <row r="11" spans="1:2" ht="77.25" thickBot="1">
       <c r="A11" s="60">
         <v>2014</v>
       </c>
@@ -6927,7 +6958,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="68" thickBot="1">
+    <row r="12" spans="1:2" ht="90" thickBot="1">
       <c r="A12" s="60">
         <v>2016</v>
       </c>
@@ -6950,9 +6981,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1">
       <c r="A1" s="54" t="s">
         <v>55</v>
       </c>
@@ -6969,7 +7000,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1">
+    <row r="2" spans="1:5" ht="16.5" thickBot="1">
       <c r="A2" s="58" t="s">
         <v>90</v>
       </c>
@@ -6986,7 +7017,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1">
       <c r="A3" s="58" t="s">
         <v>91</v>
       </c>
@@ -7003,7 +7034,7 @@
         <v>7779</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1">
       <c r="A4" s="58" t="s">
         <v>74</v>
       </c>
@@ -7020,7 +7051,7 @@
         <v>6272</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1">
       <c r="A5" s="58" t="s">
         <v>73</v>
       </c>
@@ -7037,7 +7068,7 @@
         <v>6179</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1">
       <c r="A6" s="58" t="s">
         <v>72</v>
       </c>
@@ -7054,7 +7085,7 @@
         <v>5273</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" thickBot="1">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1">
       <c r="A7" s="58" t="s">
         <v>71</v>
       </c>
@@ -7071,7 +7102,7 @@
         <v>4834</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1">
       <c r="A8" s="58" t="s">
         <v>21</v>
       </c>
@@ -7088,7 +7119,7 @@
         <v>5041</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1">
       <c r="A9" s="58" t="s">
         <v>22</v>
       </c>
@@ -7120,9 +7151,9 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.5" thickBot="1">
+    <row r="1" spans="1:2" ht="39" thickBot="1">
       <c r="A1" s="59" t="s">
         <v>55</v>
       </c>
@@ -7130,7 +7161,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="68" thickBot="1">
+    <row r="2" spans="1:2" ht="77.25" thickBot="1">
       <c r="A2" s="60">
         <v>2010</v>
       </c>
@@ -7138,7 +7169,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="69" thickBot="1">
+    <row r="3" spans="1:2" ht="78.75" thickBot="1">
       <c r="A3" s="60">
         <v>2010</v>
       </c>
@@ -7146,7 +7177,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="81.5" thickBot="1">
+    <row r="4" spans="1:2" ht="90" thickBot="1">
       <c r="A4" s="60">
         <v>2011</v>
       </c>
@@ -7154,7 +7185,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="68" thickBot="1">
+    <row r="5" spans="1:2" ht="77.25" thickBot="1">
       <c r="A5" s="60">
         <v>2012</v>
       </c>
@@ -7162,7 +7193,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="68" thickBot="1">
+    <row r="6" spans="1:2" ht="77.25" thickBot="1">
       <c r="A6" s="60">
         <v>2013</v>
       </c>
@@ -7170,7 +7201,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="108.5" thickBot="1">
+    <row r="7" spans="1:2" ht="115.5" thickBot="1">
       <c r="A7" s="60">
         <v>2014</v>
       </c>
@@ -7178,7 +7209,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="83" thickBot="1">
+    <row r="8" spans="1:2" ht="92.25" thickBot="1">
       <c r="A8" s="60">
         <v>2014</v>
       </c>
@@ -7186,7 +7217,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="81.5" thickBot="1">
+    <row r="9" spans="1:2" ht="90" thickBot="1">
       <c r="A9" s="60">
         <v>2015</v>
       </c>
@@ -7194,7 +7225,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="82.5" thickBot="1">
+    <row r="10" spans="1:2" ht="92.25" thickBot="1">
       <c r="A10" s="60">
         <v>2015</v>
       </c>
@@ -7202,7 +7233,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="68" thickBot="1">
+    <row r="11" spans="1:2" ht="77.25" thickBot="1">
       <c r="A11" s="60">
         <v>2016</v>
       </c>
@@ -7210,7 +7241,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="82.5" thickBot="1">
+    <row r="12" spans="1:2" ht="92.25" thickBot="1">
       <c r="A12" s="60">
         <v>2016</v>
       </c>
@@ -7233,7 +7264,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -7350,7 +7381,7 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -7539,7 +7570,7 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" t="s">
@@ -7713,7 +7744,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
@@ -7795,7 +7826,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
@@ -7984,178 +8015,178 @@
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" thickTop="1" thickBot="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:3" ht="27" thickTop="1" thickBot="1">
+      <c r="A1" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="64" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="54.5" thickBot="1">
-      <c r="A2" s="76">
+    <row r="2" spans="1:3" ht="64.5" thickBot="1">
+      <c r="A2" s="65">
         <v>1</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="67" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="54.5" thickBot="1">
-      <c r="A3" s="76">
+    <row r="3" spans="1:3" ht="64.5" thickBot="1">
+      <c r="A3" s="65">
         <v>2</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="67" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="81.5" thickBot="1">
-      <c r="A4" s="76">
+    <row r="4" spans="1:3" ht="90" thickBot="1">
+      <c r="A4" s="65">
         <v>3</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="67" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="81.5" thickBot="1">
-      <c r="A5" s="76">
+    <row r="5" spans="1:3" ht="102.75" thickBot="1">
+      <c r="A5" s="65">
         <v>4</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="67" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="54.5" thickBot="1">
-      <c r="A6" s="76">
+    <row r="6" spans="1:3" ht="51.75" thickBot="1">
+      <c r="A6" s="65">
         <v>5</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="67" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="82" thickBot="1">
-      <c r="A7" s="76">
+    <row r="7" spans="1:3" ht="90.75" thickBot="1">
+      <c r="A7" s="65">
         <v>6</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="67" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="54.5" thickBot="1">
-      <c r="A8" s="76">
+    <row r="8" spans="1:3" ht="64.5" thickBot="1">
+      <c r="A8" s="65">
         <v>7</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="67" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="68" thickBot="1">
-      <c r="A9" s="76">
+    <row r="9" spans="1:3" ht="77.25" thickBot="1">
+      <c r="A9" s="65">
         <v>8</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="67" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="54.5" thickBot="1">
-      <c r="A10" s="76">
+    <row r="10" spans="1:3" ht="64.5" thickBot="1">
+      <c r="A10" s="65">
         <v>9</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="67" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="82" thickBot="1">
-      <c r="A11" s="76">
+    <row r="11" spans="1:3" ht="90.75" thickBot="1">
+      <c r="A11" s="65">
         <v>10</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="67" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="55" thickBot="1">
-      <c r="A12" s="76">
+    <row r="12" spans="1:3" ht="65.25" thickBot="1">
+      <c r="A12" s="65">
         <v>11</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="67" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="54.5" thickBot="1">
-      <c r="A13" s="76">
+    <row r="13" spans="1:3" ht="64.5" thickBot="1">
+      <c r="A13" s="65">
         <v>12</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="67" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="64.5" thickBot="1">
+      <c r="A14" s="65">
+        <v>13</v>
+      </c>
+      <c r="B14" s="66" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="54.5" thickBot="1">
-      <c r="A14" s="76">
-        <v>13</v>
-      </c>
-      <c r="B14" s="77" t="s">
+      <c r="C14" s="67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="64.5" thickBot="1">
+      <c r="A15" s="68">
+        <v>14</v>
+      </c>
+      <c r="B15" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="78" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="54.5" thickBot="1">
-      <c r="A15" s="79">
-        <v>14</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="70" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" thickTop="1"/>
+    <row r="16" spans="1:3" ht="16.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8167,11 +8198,11 @@
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2">
@@ -8256,6 +8287,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8268,7 +8300,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -8378,12 +8410,12 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.69140625" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A1" s="23" t="s">
         <v>20</v>
       </c>
@@ -8403,7 +8435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" thickBot="1">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
@@ -8423,7 +8455,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" thickBot="1">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="26" t="s">
         <v>24</v>
       </c>
@@ -8443,7 +8475,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" thickBot="1">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1">
       <c r="A4" s="26" t="s">
         <v>26</v>
       </c>
@@ -8463,7 +8495,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" thickBot="1">
+    <row r="5" spans="1:6" ht="16.5" thickBot="1">
       <c r="A5" s="26" t="s">
         <v>27</v>
       </c>
@@ -8483,7 +8515,7 @@
         <v>5917</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" thickBot="1">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1">
       <c r="A6" s="26" t="s">
         <v>28</v>
       </c>
@@ -8503,7 +8535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" thickBot="1">
+    <row r="7" spans="1:6" ht="16.5" thickBot="1">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
@@ -8523,7 +8555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" thickBot="1">
+    <row r="8" spans="1:6" ht="16.5" thickBot="1">
       <c r="A8" s="29" t="s">
         <v>30</v>
       </c>
@@ -8543,7 +8575,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" thickTop="1"/>
+    <row r="9" spans="1:6" ht="16.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8559,7 +8591,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="32">
@@ -8776,7 +8808,7 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1">
@@ -8957,10 +8989,10 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="11.23046875" customWidth="1"/>
-    <col min="3" max="3" width="11.765625" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
